--- a/ЦТ/ЛР_4/lr4.xlsx
+++ b/ЦТ/ЛР_4/lr4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЦТ\ЛР_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02241E9-4D1F-40A7-A44E-91990CBC1CFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9741F3-7DC6-4B84-A7F5-C9F474A87EEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Вар: е</t>
   </si>
@@ -129,6 +129,42 @@
   </si>
   <si>
     <t>Р. Суммы</t>
+  </si>
+  <si>
+    <t>median R-Y</t>
+  </si>
+  <si>
+    <t>median B-Y</t>
+  </si>
+  <si>
+    <t>delta R-Y</t>
+  </si>
+  <si>
+    <t>delta B-Y</t>
+  </si>
+  <si>
+    <t>m1_R-Y</t>
+  </si>
+  <si>
+    <t>m2_R-Y</t>
+  </si>
+  <si>
+    <t>m1_B-Y</t>
+  </si>
+  <si>
+    <t>m2_B-Y</t>
+  </si>
+  <si>
+    <t>sync_small</t>
+  </si>
+  <si>
+    <t>delta_sync_small</t>
+  </si>
+  <si>
+    <t>sync_large</t>
+  </si>
+  <si>
+    <t>delta_sync_large</t>
   </si>
 </sst>
 </file>
@@ -246,9 +282,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -257,6 +290,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,46 +573,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="20" max="21" width="16.140625" customWidth="1"/>
     <col min="22" max="22" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -659,19 +695,19 @@
       <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f>0.299*B3+0.587*C3+0.114*D3</f>
         <v>0.9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f>B3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f>C3-E3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f>D3-E3</f>
         <v>0</v>
       </c>
@@ -698,7 +734,7 @@
       <c r="D4">
         <v>0.1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" ref="E4:E10" si="0">0.299*B4+0.587*C4+0.114*D4</f>
         <v>0.80879999999999996</v>
       </c>
@@ -710,7 +746,7 @@
         <f t="shared" ref="G4:G10" si="2">C4-E4</f>
         <v>9.1200000000000059E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" ref="H4:H10" si="3">D4-E4</f>
         <v>-0.70879999999999999</v>
       </c>
@@ -737,7 +773,7 @@
       <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>0.66080000000000005</v>
       </c>
@@ -749,7 +785,7 @@
         <f t="shared" si="2"/>
         <v>0.23919999999999997</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="3"/>
         <v>0.23919999999999997</v>
       </c>
@@ -776,7 +812,7 @@
       <c r="D6">
         <v>0.1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>0.5696</v>
       </c>
@@ -788,7 +824,7 @@
         <f t="shared" si="2"/>
         <v>0.33040000000000003</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="3"/>
         <v>-0.46960000000000002</v>
       </c>
@@ -815,7 +851,7 @@
       <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>0.4304</v>
       </c>
@@ -827,7 +863,7 @@
         <f t="shared" si="2"/>
         <v>-0.33040000000000003</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="3"/>
         <v>0.46960000000000002</v>
       </c>
@@ -854,7 +890,7 @@
       <c r="D8">
         <v>0.1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>0.3392</v>
       </c>
@@ -866,7 +902,7 @@
         <f t="shared" si="2"/>
         <v>-0.2392</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="3"/>
         <v>-0.2392</v>
       </c>
@@ -893,7 +929,7 @@
       <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>0.19120000000000001</v>
       </c>
@@ -905,7 +941,7 @@
         <f t="shared" si="2"/>
         <v>-9.1200000000000003E-2</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="3"/>
         <v>0.70879999999999999</v>
       </c>
@@ -932,19 +968,19 @@
       <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -958,11 +994,350 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>632</v>
+      </c>
+      <c r="C14">
+        <v>416</v>
+      </c>
+      <c r="D14">
+        <f>B14-C14</f>
+        <v>216</v>
+      </c>
+      <c r="E14">
+        <f>(B14+C14)/2</f>
+        <v>524</v>
+      </c>
+      <c r="F14">
+        <v>616</v>
+      </c>
+      <c r="G14">
+        <v>432</v>
+      </c>
+      <c r="H14">
+        <f>F14-G14</f>
+        <v>184</v>
+      </c>
+      <c r="I14">
+        <f>(F14+G14)/2</f>
+        <v>524</v>
+      </c>
+      <c r="K14">
+        <v>-120</v>
+      </c>
+      <c r="L14">
+        <v>-304</v>
+      </c>
+      <c r="M14">
+        <f>K14-L14</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>432</v>
+      </c>
+      <c r="C15">
+        <v>232</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D21" si="4">B15-C15</f>
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E21" si="5">(B15+C15)/2</f>
+        <v>332</v>
+      </c>
+      <c r="F15">
+        <v>504</v>
+      </c>
+      <c r="G15">
+        <v>144</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H21" si="6">F15-G15</f>
+        <v>360</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I21" si="7">(F15+G15)/2</f>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>456</v>
+      </c>
+      <c r="C16">
+        <v>-16</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>472</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="F16">
+        <v>320</v>
+      </c>
+      <c r="G16">
+        <v>120</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>360</v>
+      </c>
+      <c r="C17">
+        <v>-72</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>432</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="F17">
+        <v>280</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>272</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="K17">
+        <v>-104</v>
+      </c>
+      <c r="L17">
+        <v>-312</v>
+      </c>
+      <c r="M17">
+        <f>K17-L17</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>160</v>
+      </c>
+      <c r="C18">
+        <v>-72</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>160</v>
+      </c>
+      <c r="G18">
+        <v>-64</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>112</v>
+      </c>
+      <c r="C19">
+        <v>-160</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>-24</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+      <c r="G19">
+        <v>-136</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>-8</v>
+      </c>
+      <c r="C20">
+        <v>-280</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>-144</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>-288</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>288</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>-112</v>
+      </c>
+      <c r="C21">
+        <v>-320</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>208</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>-216</v>
+      </c>
+      <c r="F21">
+        <v>-120</v>
+      </c>
+      <c r="G21">
+        <v>-304</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>184</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>-212</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:S1"/>
+    <mergeCell ref="B12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ЦТ/ЛР_4/lr4.xlsx
+++ b/ЦТ/ЛР_4/lr4.xlsx
@@ -1,36 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЦТ\ЛР_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9741F3-7DC6-4B84-A7F5-C9F474A87EEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B29ABDF-6B2B-4434-A81A-0D3A243DA005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Вар: е</t>
   </si>
@@ -165,6 +161,18 @@
   </si>
   <si>
     <t>delta_sync_large</t>
+  </si>
+  <si>
+    <t>Uy`</t>
+  </si>
+  <si>
+    <t>Ur-y`</t>
+  </si>
+  <si>
+    <t>Ub-y`</t>
+  </si>
+  <si>
+    <t>фСц</t>
   </si>
 </sst>
 </file>
@@ -180,12 +188,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -280,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -293,6 +307,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,30 +609,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="L1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
       <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -640,37 +652,31 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
       </c>
       <c r="T2" t="s">
         <v>30</v>
@@ -711,6 +717,42 @@
         <f>D3-E3</f>
         <v>0</v>
       </c>
+      <c r="I3">
+        <f>0.299*B3+0.587*C3+0.114*D3</f>
+        <v>0.9</v>
+      </c>
+      <c r="J3">
+        <f>0.701*B3-0.587*C3-0.114*D3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>-0.299*B3-0.587*C3+0.886*D3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="0">0.493*H3</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M10" si="1">0.877*F3</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>SQRT(POWER(L3,2)+POWER(M3,2))</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>ATAN(M3/(L3+0.00000000001))*180/PI()</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>ATAN(M3/(L3+0.00000000001))*180/PI()+90</f>
+        <v>90</v>
+      </c>
+      <c r="Q3">
+        <f>ATAN(M3/(L3+0.00000000001))*180/PI()+270</f>
+        <v>270</v>
+      </c>
       <c r="T3">
         <v>1.42</v>
       </c>
@@ -735,20 +777,56 @@
         <v>0.1</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E10" si="0">0.299*B4+0.587*C4+0.114*D4</f>
+        <f t="shared" ref="E4:E10" si="2">0.299*B4+0.587*C4+0.114*D4</f>
         <v>0.80879999999999996</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F10" si="1">B4-E4</f>
+        <f t="shared" ref="F4:F10" si="3">B4-E4</f>
         <v>9.1200000000000059E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G10" si="2">C4-E4</f>
+        <f t="shared" ref="G4:G10" si="4">C4-E4</f>
         <v>9.1200000000000059E-2</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H10" si="3">D4-E4</f>
+        <f t="shared" ref="H4:H10" si="5">D4-E4</f>
         <v>-0.70879999999999999</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="6">0.299*B4+0.587*C4+0.114*D4</f>
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J10" si="7">0.701*B4-0.587*C4-0.114*D4</f>
+        <v>9.1200000000000031E-2</v>
+      </c>
+      <c r="K4">
+        <f>-0.299*B4-0.587*C4+0.886*D4</f>
+        <v>-0.70879999999999999</v>
+      </c>
+      <c r="L4">
+        <f>0.493*H4</f>
+        <v>-0.34943839999999998</v>
+      </c>
+      <c r="M4">
+        <f>0.877*F4</f>
+        <v>7.9982400000000051E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N10" si="8">SQRT(POWER(L4,2)+POWER(M4,2))</f>
+        <v>0.35847507542968732</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O10" si="9">ATAN(M4/(L4+0.00000000001))*180/PI()</f>
+        <v>-12.892260360614777</v>
+      </c>
+      <c r="P4">
+        <f>ATAN(-M4/(L4+0.00000000001))*180/PI()+180</f>
+        <v>192.89226036061478</v>
+      </c>
+      <c r="Q4">
+        <f>360-P4</f>
+        <v>167.10773963938522</v>
       </c>
       <c r="T4">
         <v>1.3</v>
@@ -774,20 +852,56 @@
         <v>0.9</v>
       </c>
       <c r="E5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>-0.56080000000000008</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>0.23919999999999997</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="5"/>
+        <v>0.23919999999999997</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="6"/>
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="7"/>
+        <v>-0.56079999999999997</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K4:K10" si="10">-0.299*B5-0.587*C5+0.886*D5</f>
+        <v>0.23919999999999997</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.66080000000000005</v>
-      </c>
-      <c r="F5">
+        <v>0.11792559999999998</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="1"/>
-        <v>-0.56080000000000008</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>0.23919999999999997</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="3"/>
-        <v>0.23919999999999997</v>
+        <v>-0.49182160000000008</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="8"/>
+        <v>0.50576173576291839</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="9"/>
+        <v>-76.516558585637654</v>
+      </c>
+      <c r="P5">
+        <f>ATAN(M5/(L5+0.00000000001))*180/PI()+360</f>
+        <v>283.48344141436235</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q10" si="11">360-P5</f>
+        <v>76.516558585637654</v>
       </c>
       <c r="T5">
         <v>1.1000000000000001</v>
@@ -800,33 +914,69 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>0.1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>0.9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <v>0.1</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
+      <c r="E6" s="12">
+        <f t="shared" si="2"/>
         <v>0.5696</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>-0.46960000000000002</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>0.33040000000000003</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="F6" s="11">
         <f t="shared" si="3"/>
         <v>-0.46960000000000002</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="4"/>
+        <v>0.33040000000000003</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.46960000000000002</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="6"/>
+        <v>0.5696</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="7"/>
+        <v>-0.46960000000000002</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="10"/>
+        <v>-0.46960000000000002</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>-0.23151280000000002</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.41183920000000002</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="8"/>
+        <v>0.47245074158104566</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="9"/>
+        <v>60.657757795672701</v>
+      </c>
+      <c r="P6" s="11">
+        <f>ATAN(M6/(L6+0.00000000001))*180/PI()+180</f>
+        <v>240.65775779567269</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="11"/>
+        <v>119.34224220432731</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -852,20 +1002,56 @@
         <v>0.9</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.4304</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0.46960000000000002</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>-0.33040000000000003</v>
-      </c>
-      <c r="H7" s="5">
         <f t="shared" si="3"/>
         <v>0.46960000000000002</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>-0.33040000000000003</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="5"/>
+        <v>0.46960000000000002</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>0.4304</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="7"/>
+        <v>0.46960000000000002</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="10"/>
+        <v>0.46960000000000002</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.23151280000000002</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.41183920000000002</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="8"/>
+        <v>0.47245074158104566</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="9"/>
+        <v>60.657757793558403</v>
+      </c>
+      <c r="P7">
+        <f>ATAN(M7/(L7+0.00000000001))*180/PI()+0</f>
+        <v>60.657757793558403</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="11"/>
+        <v>299.3422422064416</v>
       </c>
       <c r="T7">
         <v>0.8</v>
@@ -891,20 +1077,56 @@
         <v>0.1</v>
       </c>
       <c r="E8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.3392</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.56079999999999997</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>-0.2392</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.2392</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>0.3392</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>0.56080000000000008</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="10"/>
+        <v>-0.23919999999999997</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="0"/>
-        <v>0.3392</v>
-      </c>
-      <c r="F8">
+        <v>-0.11792559999999999</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="1"/>
-        <v>0.56079999999999997</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>-0.2392</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.2392</v>
+        <v>0.49182159999999997</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="8"/>
+        <v>0.50576173576291827</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="9"/>
+        <v>-76.516558587840919</v>
+      </c>
+      <c r="P8">
+        <f>ATAN(M8/(L8+0.00000000001))*180/PI()+180</f>
+        <v>103.48344141215908</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="11"/>
+        <v>256.5165585878409</v>
       </c>
       <c r="T8">
         <v>0.68</v>
@@ -930,20 +1152,56 @@
         <v>0.9</v>
       </c>
       <c r="E9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>-9.1200000000000003E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>-9.1200000000000003E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="5"/>
+        <v>0.70879999999999999</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>-9.1200000000000017E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="10"/>
+        <v>0.70879999999999999</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>0.19120000000000001</v>
-      </c>
-      <c r="F9">
+        <v>0.34943839999999998</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="1"/>
-        <v>-9.1200000000000003E-2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>-9.1200000000000003E-2</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="3"/>
-        <v>0.70879999999999999</v>
+        <v>-7.9982400000000009E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="8"/>
+        <v>0.35847507542968732</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="9"/>
+        <v>-12.89226035990154</v>
+      </c>
+      <c r="P9">
+        <f>ATAN(M9/(L9+0.00000000001))*180/PI()+360</f>
+        <v>347.10773964009849</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="11"/>
+        <v>12.892260359901513</v>
       </c>
       <c r="T9">
         <v>0.48</v>
@@ -969,20 +1227,56 @@
         <v>0.9</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="F10" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L4:L10" si="12">0.493*K10</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="N10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>ATAN(M10/(L10+0.00000000001))*180/PI()+270</f>
+        <v>270</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="11"/>
+        <v>90</v>
       </c>
       <c r="T10">
         <v>0.36</v>
@@ -994,15 +1288,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="K12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1030,13 +1337,22 @@
         <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1072,14 +1388,26 @@
         <v>524</v>
       </c>
       <c r="K14">
-        <v>-120</v>
+        <f>-1.9*J3</f>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>-304</v>
+        <f>1.5*K3</f>
+        <v>0</v>
       </c>
       <c r="M14">
-        <f>K14-L14</f>
-        <v>184</v>
+        <v>350</v>
+      </c>
+      <c r="N14">
+        <v>350</v>
+      </c>
+      <c r="O14">
+        <f>4406.25+M14*K14</f>
+        <v>4406.25</v>
+      </c>
+      <c r="P14">
+        <f>4250-350*L14</f>
+        <v>4250</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1093,11 +1421,11 @@
         <v>232</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D21" si="4">B15-C15</f>
+        <f t="shared" ref="D15:D21" si="13">B15-C15</f>
         <v>200</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E21" si="5">(B15+C15)/2</f>
+        <f t="shared" ref="E15:E21" si="14">(B15+C15)/2</f>
         <v>332</v>
       </c>
       <c r="F15">
@@ -1107,12 +1435,34 @@
         <v>144</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H21" si="6">F15-G15</f>
+        <f t="shared" ref="H15:H21" si="15">F15-G15</f>
         <v>360</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I21" si="7">(F15+G15)/2</f>
+        <f t="shared" ref="I15:I21" si="16">(F15+G15)/2</f>
         <v>324</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:K21" si="17">-1.9*J4</f>
+        <v>-0.17328000000000005</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:L21" si="18">1.5*K4</f>
+        <v>-1.0631999999999999</v>
+      </c>
+      <c r="M15">
+        <v>350</v>
+      </c>
+      <c r="N15">
+        <v>350</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ref="O15:O21" si="19">4406.25+M15*K15</f>
+        <v>4345.6019999999999</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15:P21" si="20">4250-350*L15</f>
+        <v>4622.12</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1126,11 +1476,11 @@
         <v>-16</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>472</v>
       </c>
       <c r="E16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>220</v>
       </c>
       <c r="F16">
@@ -1140,24 +1490,37 @@
         <v>120</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="I16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>220</v>
       </c>
-      <c r="K16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="17"/>
+        <v>1.0655199999999998</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="18"/>
+        <v>0.35879999999999995</v>
+      </c>
+      <c r="M16">
+        <v>350</v>
+      </c>
+      <c r="N16">
+        <v>350</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="19"/>
+        <v>4779.1819999999998</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="20"/>
+        <v>4124.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1168,11 +1531,11 @@
         <v>-72</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>432</v>
       </c>
       <c r="E17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>144</v>
       </c>
       <c r="F17">
@@ -1182,25 +1545,37 @@
         <v>8</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>272</v>
       </c>
       <c r="I17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>144</v>
       </c>
       <c r="K17">
-        <v>-104</v>
+        <f t="shared" si="17"/>
+        <v>0.89224000000000003</v>
       </c>
       <c r="L17">
-        <v>-312</v>
+        <f t="shared" si="18"/>
+        <v>-0.70440000000000003</v>
       </c>
       <c r="M17">
-        <f>K17-L17</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="N17">
+        <v>350</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="19"/>
+        <v>4718.5339999999997</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="20"/>
+        <v>4496.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1211,11 +1586,11 @@
         <v>-72</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>232</v>
       </c>
       <c r="E18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
       <c r="F18">
@@ -1225,15 +1600,37 @@
         <v>-64</v>
       </c>
       <c r="H18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>224</v>
       </c>
       <c r="I18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="17"/>
+        <v>-0.89224000000000003</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="18"/>
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="M18">
+        <v>350</v>
+      </c>
+      <c r="N18">
+        <v>350</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="19"/>
+        <v>4093.9659999999999</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="20"/>
+        <v>4003.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1244,11 +1641,11 @@
         <v>-160</v>
       </c>
       <c r="D19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>272</v>
       </c>
       <c r="E19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-24</v>
       </c>
       <c r="F19">
@@ -1258,15 +1655,37 @@
         <v>-136</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>216</v>
       </c>
       <c r="I19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>-28</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="17"/>
+        <v>-1.06552</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="18"/>
+        <v>-0.35879999999999995</v>
+      </c>
+      <c r="M19">
+        <v>350</v>
+      </c>
+      <c r="N19">
+        <v>350</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="19"/>
+        <v>4033.3180000000002</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="20"/>
+        <v>4375.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1277,11 +1696,11 @@
         <v>-280</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>272</v>
       </c>
       <c r="E20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-144</v>
       </c>
       <c r="F20">
@@ -1291,15 +1710,37 @@
         <v>-288</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>288</v>
       </c>
       <c r="I20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>-144</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="17"/>
+        <v>0.17328000000000002</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="18"/>
+        <v>1.0631999999999999</v>
+      </c>
+      <c r="M20">
+        <v>350</v>
+      </c>
+      <c r="N20">
+        <v>350</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="19"/>
+        <v>4466.8980000000001</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="20"/>
+        <v>3877.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1310,11 +1751,11 @@
         <v>-320</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>208</v>
       </c>
       <c r="E21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-216</v>
       </c>
       <c r="F21">
@@ -1324,21 +1765,102 @@
         <v>-304</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>184</v>
       </c>
       <c r="I21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>-212</v>
       </c>
+      <c r="K21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>350</v>
+      </c>
+      <c r="N21">
+        <v>350</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="19"/>
+        <v>4406.25</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="20"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-120</v>
+      </c>
+      <c r="B25">
+        <v>-304</v>
+      </c>
+      <c r="C25">
+        <f>A25-B25</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-104</v>
+      </c>
+      <c r="B28">
+        <v>-312</v>
+      </c>
+      <c r="C28">
+        <f>A28-B28</f>
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="K12:P12"/>
     <mergeCell ref="B12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5C0DEF-3698-48AB-9AA2-F556F6D207AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>